--- a/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate.xlsx
+++ b/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
   <si>
     <t>信号名</t>
   </si>
@@ -93,13 +93,19 @@
     <t>接收节点</t>
   </si>
   <si>
-    <t>ObcChgOutVolt</t>
-  </si>
-  <si>
-    <t>OBC_1</t>
-  </si>
-  <si>
-    <t>0x233</t>
+    <t>DCDC2_OutputCurrent</t>
+  </si>
+  <si>
+    <t>DC4</t>
+  </si>
+  <si>
+    <t>0x0C4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <r>
@@ -108,7 +114,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>OBC</t>
+      <t>DC-DC2</t>
     </r>
     <r>
       <rPr>
@@ -116,17 +122,32 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>充电输出电压</t>
+      <t>输出电流</t>
     </r>
   </si>
   <si>
-    <t>OBC</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>EXECU</t>
   </si>
   <si>
     <t>VCU</t>
   </si>
   <si>
-    <t>ObcChgOutCur</t>
+    <t>DCDC2_InputCurrent</t>
   </si>
   <si>
     <r>
@@ -135,7 +156,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>OBC</t>
+      <t>DC-DC2</t>
     </r>
     <r>
       <rPr>
@@ -143,11 +164,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>充电输出电流</t>
+      <t>输入电流</t>
     </r>
   </si>
   <si>
-    <t>ObcChgInVolt</t>
+    <t>DCDC2_OutputVoltage</t>
   </si>
   <si>
     <r>
@@ -156,145 +177,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>OBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>充电输入电压</t>
-    </r>
-  </si>
-  <si>
-    <t>ObcChgInCur</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>充电输入电流</t>
-    </r>
-  </si>
-  <si>
-    <t>ObcDisChgOutVolt</t>
-  </si>
-  <si>
-    <t>OBC_2</t>
-  </si>
-  <si>
-    <t>0x234</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放电输出电压</t>
-    </r>
-  </si>
-  <si>
-    <t>ObcDisChgOutCur</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放电输出电流</t>
-    </r>
-  </si>
-  <si>
-    <t>ObcDisChgInVolt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放电输入电压</t>
-    </r>
-  </si>
-  <si>
-    <t>ObcDisChgInCur</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放电输入电流</t>
-    </r>
-  </si>
-  <si>
-    <t>DcdcOutVolt</t>
-  </si>
-  <si>
-    <t>DCDC_1</t>
-  </si>
-  <si>
-    <t>0x333</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DCDC</t>
+      <t>DC-DC2</t>
     </r>
     <r>
       <rPr>
@@ -306,7 +189,10 @@
     </r>
   </si>
   <si>
-    <t>DcdcOutCur</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DCDC2_InputVolt</t>
   </si>
   <si>
     <r>
@@ -315,28 +201,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>DCDC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出电流</t>
-    </r>
-  </si>
-  <si>
-    <t>DcdcInVolt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DCDC</t>
+      <t>DC-DC2</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +213,105 @@
     </r>
   </si>
   <si>
-    <t>DcdcInCur</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RollingCounterC4</t>
+  </si>
+  <si>
+    <t>滚动计数器</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>ChecksumC4</t>
+  </si>
+  <si>
+    <t>校验值</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>OTA_ModeSt</t>
+  </si>
+  <si>
+    <t>OTAInfo</t>
+  </si>
+  <si>
+    <t>0x30A</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>OTA模式状态信号</t>
+  </si>
+  <si>
+    <t>0: No OTA Mode
+1:OTA Mode</t>
+  </si>
+  <si>
+    <t>OTA_EstimatedUpgradeTime</t>
+  </si>
+  <si>
+    <t>OTA预计升级时间</t>
+  </si>
+  <si>
+    <t>RollingCounter30A</t>
+  </si>
+  <si>
+    <t>滚动计数器30A</t>
+  </si>
+  <si>
+    <t>Checksum30A</t>
+  </si>
+  <si>
+    <t>校验值30A</t>
+  </si>
+  <si>
+    <t>BCM_BattVolt_EBS2</t>
+  </si>
+  <si>
+    <t>IBCM_EBS2</t>
+  </si>
+  <si>
+    <t>0x340</t>
+  </si>
+  <si>
+    <t>蓄电池电压EBS2</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>BCM_12VChrgReq</t>
+  </si>
+  <si>
+    <t>12V蓄电池低压补电请求</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>0:No Requset
+1:Requset charging</t>
+  </si>
+  <si>
+    <t>DCDC2_Temperature</t>
+  </si>
+  <si>
+    <t>DC3</t>
+  </si>
+  <si>
+    <t>0x344</t>
   </si>
   <si>
     <r>
@@ -357,7 +320,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>DCDC</t>
+      <t>DC-DC2</t>
     </r>
     <r>
       <rPr>
@@ -365,17 +328,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>输入电流</t>
+      <t>温度</t>
     </r>
   </si>
   <si>
-    <t>ObcChgOutVoltReq</t>
-  </si>
-  <si>
-    <t>VCU_1</t>
-  </si>
-  <si>
-    <t>0x433</t>
+    <t>DCDC2_Fault</t>
   </si>
   <si>
     <r>
@@ -384,7 +341,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>OBC</t>
+      <t>DC-DC2</t>
     </r>
     <r>
       <rPr>
@@ -392,20 +349,14 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>输出电流请求</t>
+      <t>故障</t>
     </r>
   </si>
   <si>
-    <t>ObcChgOuCurReq</t>
-  </si>
-  <si>
-    <t>ObcWorkModeReq</t>
-  </si>
-  <si>
-    <t>VCU_2</t>
-  </si>
-  <si>
-    <t>0x434</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>DCDC2_Efficiency</t>
   </si>
   <si>
     <r>
@@ -414,7 +365,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>OBC</t>
+      <t>DCDC2</t>
     </r>
     <r>
       <rPr>
@@ -422,14 +373,207 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>工作模式请求</t>
+      <t>效率</t>
     </r>
   </si>
   <si>
-    <t>1:standby;
-2:Charge;
-3:PowerDown;
-4:AfterRun</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>DCDC2_HighVoltCnctAllowed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DC-DC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高压连接允许信号</t>
+    </r>
+  </si>
+  <si>
+    <t>0: Not permit
+1: Permit</t>
+  </si>
+  <si>
+    <t>DCDC2_State</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DC-DC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0: off mode
+1: Init mode
+2: standby mode
+3: conversio(working)
+4: error mode
+5: degradation mode
+6: reserved
+7: invalid</t>
+  </si>
+  <si>
+    <t>DCDC2_OverTempSt</t>
+  </si>
+  <si>
+    <t>DCDC2过温状态</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>0:  No over Temperature
+1: over  Temperature</t>
+  </si>
+  <si>
+    <t>RollingCounter344</t>
+  </si>
+  <si>
+    <t>Checksum344</t>
+  </si>
+  <si>
+    <t>PDCU_DCDC2VolReq</t>
+  </si>
+  <si>
+    <t>PDCU_CtrlDCDC</t>
+  </si>
+  <si>
+    <t>0x372</t>
+  </si>
+  <si>
+    <t>DC/DC2输出电压请求</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>PDCU_DCDC2Enable</t>
+  </si>
+  <si>
+    <t>DC/DC2使能</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0: Not used
+1: DCDC Off
+2: DCDC On
+3: Unavailable Value</t>
+  </si>
+  <si>
+    <t>NMNode</t>
+  </si>
+  <si>
+    <t>DCDC2_NM</t>
+  </si>
+  <si>
+    <t>0x59C</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>节点地址</t>
+  </si>
+  <si>
+    <t>ActiveWakeupBit</t>
+  </si>
+  <si>
+    <t>主动唤醒</t>
+  </si>
+  <si>
+    <t>0:Passive Wakeup
+1:Positive Wakeup</t>
+  </si>
+  <si>
+    <t>RepeatMessageRequestBit</t>
+  </si>
+  <si>
+    <t>重复报文请求</t>
+  </si>
+  <si>
+    <t>0:No Req
+1:Req</t>
+  </si>
+  <si>
+    <t>RepeatSts</t>
+  </si>
+  <si>
+    <t>重复报文状态</t>
+  </si>
+  <si>
+    <t>0:No Repeat State
+1:Repeat State</t>
+  </si>
+  <si>
+    <t>NMWakeupStype</t>
+  </si>
+  <si>
+    <t>唤醒类型</t>
+  </si>
+  <si>
+    <t>0:No Set
+1:Local Wakeup
+2:Message Wakeup
+3:Internal Wakeup</t>
+  </si>
+  <si>
+    <t>NMWakeupPower</t>
+  </si>
+  <si>
+    <t>唤醒时电源档位</t>
+  </si>
+  <si>
+    <t>0:No Set
+1:OFF
+2:ACC
+3:ON
+4:START</t>
+  </si>
+  <si>
+    <t>NMWakeupSource</t>
+  </si>
+  <si>
+    <t>本地唤醒源</t>
   </si>
 </sst>
 </file>
@@ -605,7 +749,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +758,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -799,12 +955,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,7 +1100,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,126 +1112,143 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1595,737 +1783,1408 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="12.5714285714286" customWidth="1"/>
     <col min="9" max="11" width="14.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="18.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="37.8571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="15" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>0.1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" t="s">
-        <v>20</v>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="O5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>0.1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>0.1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O6" t="s">
-        <v>20</v>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:15">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>0.1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O7" t="s">
-        <v>20</v>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:15">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
+    <row r="8" customFormat="1" ht="30" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:15">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>20</v>
+      <c r="L9" s="10"/>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" t="s">
-        <v>20</v>
+      <c r="K10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>0.1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>20</v>
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>0.1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O12" t="s">
-        <v>20</v>
+      <c r="J12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+    <row r="13" ht="30" spans="1:15">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>0.1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
+      <c r="L13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14">
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" t="s">
-        <v>19</v>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-40</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:15">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>0.1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
+      <c r="A15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="60" spans="1:15">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>0.1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>19</v>
+    <row r="16" customFormat="1" spans="1:15">
+      <c r="A16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:15">
+      <c r="A17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="120" spans="1:15">
+      <c r="A18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:15">
+      <c r="A19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="60" spans="1:15">
+      <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:15">
+      <c r="A25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:15">
+      <c r="A26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="30" spans="1:15">
+      <c r="A27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="60" spans="1:15">
+      <c r="A28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="1:15">
+      <c r="A29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="H2:L7 H8:K8 H9:L12 H13:K13 H14:L16 H17:K19 H20:L22 H23:K23 H24:L24 H25:K25 H26:K29 H30:L30 D2:E30" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate.xlsx
+++ b/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="CanMatrix" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +26,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>016437</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>016437:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+APP可用于生DBC/XML/代码;
+NM仅用于生成DBC/XML</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="223">
   <si>
     <t>信号名</t>
   </si>
@@ -79,7 +112,8 @@
     <t>偏移</t>
   </si>
   <si>
-    <t>信号值</t>
+    <t>信号值
+(格式: 0:fault)</t>
   </si>
   <si>
     <t>值类型
@@ -93,6 +127,60 @@
     <t>接收节点</t>
   </si>
   <si>
+    <t>报文类型
+(0:APP
+ 1:NM)</t>
+  </si>
+  <si>
+    <t>ESC_VehSpdValidFlag</t>
+  </si>
+  <si>
+    <t>ESC2</t>
+  </si>
+  <si>
+    <t>0x0A0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>车速有效信号</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0:No Fault
+1:Fault</t>
+  </si>
+  <si>
+    <t>EXECU</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>ESC_VehSpd</t>
+  </si>
+  <si>
+    <t>车速</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>DCDC2_OutputCurrent</t>
   </si>
   <si>
@@ -100,9 +188,6 @@
   </si>
   <si>
     <t>0x0C4</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>10</t>
@@ -135,18 +220,6 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>DCDC</t>
-  </si>
-  <si>
-    <t>EXECU</t>
-  </si>
-  <si>
-    <t>VCU</t>
-  </si>
-  <si>
     <t>DCDC2_InputCurrent</t>
   </si>
   <si>
@@ -219,9 +292,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>RollingCounterC4</t>
   </si>
   <si>
@@ -237,7 +307,20 @@
     <t>校验值</t>
   </si>
   <si>
-    <t>56</t>
+    <t>PDCU_DriveReady</t>
+  </si>
+  <si>
+    <t>PDCU1</t>
+  </si>
+  <si>
+    <t>0x0FE</t>
+  </si>
+  <si>
+    <t>行车准备就绪指示</t>
+  </si>
+  <si>
+    <t>0:No Allow
+1:Allow</t>
   </si>
   <si>
     <t>OTA_ModeSt</t>
@@ -255,7 +338,7 @@
     <t>OTA模式状态信号</t>
   </si>
   <si>
-    <t>0: No OTA Mode
+    <t>0:No OTA Mode
 1:OTA Mode</t>
   </si>
   <si>
@@ -277,6 +360,36 @@
     <t>校验值30A</t>
   </si>
   <si>
+    <t>IC_TotalOdmeter</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>0x320</t>
+  </si>
+  <si>
+    <t>总里程</t>
+  </si>
+  <si>
+    <t>BCM_IgnitionSt</t>
+  </si>
+  <si>
+    <t>IBCM3</t>
+  </si>
+  <si>
+    <t>0x33C</t>
+  </si>
+  <si>
+    <t>点火开关信号</t>
+  </si>
+  <si>
+    <t>0:OFF
+1:ACC
+2:ON
+3:START</t>
+  </si>
+  <si>
     <t>BCM_BattVolt_EBS2</t>
   </si>
   <si>
@@ -290,19 +403,6 @@
   </si>
   <si>
     <t>0.05</t>
-  </si>
-  <si>
-    <t>BCM_12VChrgReq</t>
-  </si>
-  <si>
-    <t>12V蓄电池低压补电请求</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>0:No Requset
-1:Requset charging</t>
   </si>
   <si>
     <t>DCDC2_Temperature</t>
@@ -353,9 +453,6 @@
     </r>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>DCDC2_Efficiency</t>
   </si>
   <si>
@@ -404,8 +501,8 @@
     </r>
   </si>
   <si>
-    <t>0: Not permit
-1: Permit</t>
+    <t>0:Not permit
+1:Permit</t>
   </si>
   <si>
     <t>DCDC2_State</t>
@@ -435,14 +532,14 @@
     <t>3</t>
   </si>
   <si>
-    <t>0: off mode
-1: Init mode
-2: standby mode
-3: conversio(working)
-4: error mode
-5: degradation mode
-6: reserved
-7: invalid</t>
+    <t>0:off mode
+1:Init mode
+2:standby mode
+3:conversio(working)
+4:error mode
+5:degradation mode
+6:reserved
+7:invalid</t>
   </si>
   <si>
     <t>DCDC2_OverTempSt</t>
@@ -454,8 +551,8 @@
     <t>36</t>
   </si>
   <si>
-    <t>0:  No over Temperature
-1: over  Temperature</t>
+    <t>0:No over Temperature
+1:over  Temperature</t>
   </si>
   <si>
     <t>RollingCounter344</t>
@@ -494,10 +591,93 @@
     <t>2</t>
   </si>
   <si>
-    <t>0: Not used
-1: DCDC Off
-2: DCDC On
-3: Unavailable Value</t>
+    <t>0:Not used
+1:DCDC Off
+2:DCDC On
+3:Unavailable Value</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_Year</t>
+  </si>
+  <si>
+    <t>MP5_Time</t>
+  </si>
+  <si>
+    <t>0x4DA</t>
+  </si>
+  <si>
+    <t>时间年</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_Month</t>
+  </si>
+  <si>
+    <t>时间月</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_Date</t>
+  </si>
+  <si>
+    <t>时间日</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_Hour</t>
+  </si>
+  <si>
+    <t>时间时（按照24小时制发送）</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_Minute</t>
+  </si>
+  <si>
+    <t>时间分</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_Second</t>
+  </si>
+  <si>
+    <t>时间秒</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_YearMark</t>
+  </si>
+  <si>
+    <t>时间年识别标志</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0:Max Year 2033                        
+1:Max Year 2254</t>
+  </si>
+  <si>
+    <t>MP5_TBOX_Time_Valid</t>
+  </si>
+  <si>
+    <t>时间有效位</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0:Valid                            
+1:Not Valid</t>
   </si>
   <si>
     <t>NMNode</t>
@@ -574,6 +754,168 @@
   </si>
   <si>
     <t>本地唤醒源</t>
+  </si>
+  <si>
+    <t>SGW_NMNode</t>
+  </si>
+  <si>
+    <t>SGW_NM</t>
+  </si>
+  <si>
+    <t>0x590</t>
+  </si>
+  <si>
+    <t>SGW_ActiveWakeupBit</t>
+  </si>
+  <si>
+    <t>SGW_RepeatMessageRequestBit</t>
+  </si>
+  <si>
+    <t>SGW_RepeatSts</t>
+  </si>
+  <si>
+    <t>SGW_NMWakeupStype</t>
+  </si>
+  <si>
+    <t>SGW_NMWakeupPower</t>
+  </si>
+  <si>
+    <t>SGW_NMWakeupSource</t>
+  </si>
+  <si>
+    <t>PDCU_NMNode</t>
+  </si>
+  <si>
+    <t>PDCU_NM</t>
+  </si>
+  <si>
+    <t>0x596</t>
+  </si>
+  <si>
+    <t>PDCU_ActiveWakeupBit</t>
+  </si>
+  <si>
+    <t>PDCU_RepeatMessageRequestBit</t>
+  </si>
+  <si>
+    <t>PDCU_RepeatSts</t>
+  </si>
+  <si>
+    <t>PDCU_NMWakeupStype</t>
+  </si>
+  <si>
+    <t>PDCU_NMWakeupPower</t>
+  </si>
+  <si>
+    <t>PDCU_NMWakeupSource</t>
+  </si>
+  <si>
+    <t>BMS_NMNode</t>
+  </si>
+  <si>
+    <t>BMS_NM</t>
+  </si>
+  <si>
+    <t>0x597</t>
+  </si>
+  <si>
+    <t>BMS_ActiveWakeupBit</t>
+  </si>
+  <si>
+    <t>BMS_RepeatMessageRequestBit</t>
+  </si>
+  <si>
+    <t>BMS_RepeatSts</t>
+  </si>
+  <si>
+    <t>BMS_NMWakeupStype</t>
+  </si>
+  <si>
+    <t>BMS_NMWakeupPower</t>
+  </si>
+  <si>
+    <t>BMS_NMWakeupSource</t>
+  </si>
+  <si>
+    <t>OBC_NMNode</t>
+  </si>
+  <si>
+    <t>OBC_NM</t>
+  </si>
+  <si>
+    <t>0x598</t>
+  </si>
+  <si>
+    <t>OBC_ActiveWakeupBit</t>
+  </si>
+  <si>
+    <t>OBC_RepeatMessageRequestBit</t>
+  </si>
+  <si>
+    <t>OBC_RepeatSts</t>
+  </si>
+  <si>
+    <t>OBC_NMWakeupStype</t>
+  </si>
+  <si>
+    <t>OBC_NMWakeupPower</t>
+  </si>
+  <si>
+    <t>OBC_NMWakeupSource</t>
+  </si>
+  <si>
+    <t>BAT1_NMNode</t>
+  </si>
+  <si>
+    <t>BAT1_NM</t>
+  </si>
+  <si>
+    <t>0x5B4</t>
+  </si>
+  <si>
+    <t>BAT1_ActiveWakeupBit</t>
+  </si>
+  <si>
+    <t>BAT1_RepeatMessageRequestBit</t>
+  </si>
+  <si>
+    <t>BAT1_RepeatSts</t>
+  </si>
+  <si>
+    <t>BAT1_NMWakeupStype</t>
+  </si>
+  <si>
+    <t>BAT1_NMWakeupPower</t>
+  </si>
+  <si>
+    <t>BAT1_NMWakeupSource</t>
+  </si>
+  <si>
+    <t>BAT2_NMNode</t>
+  </si>
+  <si>
+    <t>BAT2_NM</t>
+  </si>
+  <si>
+    <t>0x5BF</t>
+  </si>
+  <si>
+    <t>BAT2_ActiveWakeupBit</t>
+  </si>
+  <si>
+    <t>BAT2_RepeatMessageRequestBit</t>
+  </si>
+  <si>
+    <t>BAT2_RepeatSts</t>
+  </si>
+  <si>
+    <t>BAT2_NMWakeupStype</t>
+  </si>
+  <si>
+    <t>BAT2_NMWakeupPower</t>
+  </si>
+  <si>
+    <t>BAT2_NMWakeupSource</t>
   </si>
 </sst>
 </file>
@@ -586,7 +928,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -747,6 +1089,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1224,8 +1577,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1233,21 +1587,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,10 +2151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1798,1393 +2166,4141 @@
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="12.5714285714286" customWidth="1"/>
     <col min="9" max="11" width="14.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="37.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.8571428571429" style="2" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="15" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="54" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" ht="30" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:16">
+      <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:16">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="30" spans="1:16">
+      <c r="A11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:16">
+      <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <v>100</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I15" s="6">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="60" spans="1:16">
+      <c r="A16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="11">
+        <v>100</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="11">
+        <v>100</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="11">
+        <v>8</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-40</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:16">
+      <c r="A19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11">
+        <v>100</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:16">
+      <c r="A20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11">
+        <v>100</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:16">
+      <c r="A21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="11">
+        <v>100</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="120" spans="1:16">
+      <c r="A22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="11">
+        <v>100</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:16">
+      <c r="A23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="11">
+        <v>100</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="11">
+        <v>100</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="11">
+        <v>100</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
+      <c r="I25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="70" customHeight="1" spans="1:16">
+      <c r="A27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6">
+        <v>100</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:16">
+      <c r="A28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:16">
+      <c r="A29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:16">
+      <c r="A30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:16">
+      <c r="A31" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I31" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:16">
+      <c r="A32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:16">
+      <c r="A33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:16">
+      <c r="A34" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:16">
+      <c r="A35" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="30" spans="1:16">
+      <c r="A37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="30" spans="1:16">
+      <c r="A38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="30" spans="1:16">
+      <c r="A39" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="60" spans="1:16">
+      <c r="A40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="4" t="s">
+      <c r="I40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="75" spans="1:16">
+      <c r="A41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:16">
+      <c r="A43" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A44" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" s="10">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M45" s="10">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A46" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="60" spans="1:16">
+      <c r="A47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:15">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M47" s="10">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="75" spans="1:16">
+      <c r="A48" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:16">
+      <c r="A49" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="10">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="15"/>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="30" spans="1:16">
+      <c r="A51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="30" spans="1:16">
+      <c r="A52" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="30" spans="1:16">
+      <c r="A53" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="60" spans="1:16">
+      <c r="A54" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="30" spans="1:15">
-      <c r="A8" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="J54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="75" spans="1:16">
+      <c r="A55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="15"/>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:16">
+      <c r="A57" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="19"/>
+      <c r="M57" s="10">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P57" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A58" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M58" s="10">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A59" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M59" s="10">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A60" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M60" s="10">
+        <v>0</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="60" spans="1:16">
+      <c r="A61" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="I61" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M61" s="10">
+        <v>0</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P61" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="75" spans="1:16">
+      <c r="A62" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M62" s="10">
+        <v>0</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:16">
+      <c r="A63" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="19"/>
+      <c r="M63" s="10">
+        <v>0</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P63" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="15"/>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P64" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="30" spans="1:16">
+      <c r="A65" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="30" spans="1:16">
+      <c r="A66" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="30" spans="1:16">
+      <c r="A67" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P67" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="60" spans="1:16">
+      <c r="A68" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:15">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="I68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P68" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="75" spans="1:16">
+      <c r="A69" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P69" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="15"/>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P70" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:16">
+      <c r="A71" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="19"/>
+      <c r="M71" s="10">
+        <v>0</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P71" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A72" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M72" s="10">
+        <v>0</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P72" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A73" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M73" s="10">
+        <v>0</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P73" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="30" spans="1:16">
+      <c r="A74" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M74" s="10">
+        <v>0</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="60" spans="1:16">
+      <c r="A75" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="I75" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M75" s="10">
+        <v>0</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P75" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="75" spans="1:16">
+      <c r="A76" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M76" s="10">
+        <v>0</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P76" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:16">
+      <c r="A77" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="19"/>
+      <c r="M77" s="10">
+        <v>0</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="15"/>
+      <c r="M78" s="5">
+        <v>0</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="30" spans="1:16">
+      <c r="A79" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M79" s="5">
+        <v>0</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P79" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="30" spans="1:16">
+      <c r="A80" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M80" s="5">
+        <v>0</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P80" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" ht="30" spans="1:16">
+      <c r="A81" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P81" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="60" spans="1:16">
+      <c r="A82" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:15">
-      <c r="A13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7">
-        <v>100</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="7">
-        <v>-40</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:15">
-      <c r="A15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:15">
-      <c r="A16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7">
-        <v>100</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:15">
-      <c r="A17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7">
-        <v>100</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="120" spans="1:15">
-      <c r="A18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7">
-        <v>100</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:15">
-      <c r="A19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7">
-        <v>100</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7">
-        <v>100</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="5">
-        <v>100</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" ht="60" spans="1:15">
-      <c r="A23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="5">
-        <v>100</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" ht="30" spans="1:15">
-      <c r="A25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" ht="30" spans="1:15">
-      <c r="A26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" ht="30" spans="1:15">
-      <c r="A27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" ht="60" spans="1:15">
-      <c r="A28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" ht="75" spans="1:15">
-      <c r="A29" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>26</v>
+      <c r="I82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P82" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="75" spans="1:16">
+      <c r="A83" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P83" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="15"/>
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P84" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H2:L7 H8:K8 H9:L12 H13:K13 H14:L16 H17:K19 H20:L22 H23:K23 H24:L24 H25:K25 H26:K29 H30:L30 D2:E30" numberStoredAsText="1"/>
+    <ignoredError sqref="D28:D35 H28:L33 H34:K35 H36:L36 D36:E42 D15:D16 D17:E27 H17:L20 D11:E14 D2:K3 H4:L9 H11:K11 H12:L14 H21:K23 H24:L26 H27:K27 H37:K41 H42:L42 D4:E9 O49 D49:M49 D43:O48 D50:K84" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>